--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -1,104 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningAutotest\FinalProject\DataTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1305167-E66F-433B-A75F-3BE73E5FEAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A692296F-8EFC-4482-942F-E848F4A578DC}"/>
+    <workbookView windowWidth="11870" windowHeight="5560"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
+    <t>discount date</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>CocaCola</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>tags</t>
+    <t>can</t>
   </si>
   <si>
     <t>cocacola</t>
   </si>
   <si>
-    <t>CocaCola</t>
-  </si>
-  <si>
-    <t>product name</t>
-  </si>
-  <si>
-    <t>unit price</t>
-  </si>
-  <si>
-    <t>01-01-2023 00:00:00 to 31-01-2023 00:00:00</t>
-  </si>
-  <si>
-    <t>discount date</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>SKU</t>
+    <t>01-01-2023 00:00:00 to 31-01-2024 00:00:00</t>
   </si>
   <si>
     <t>CCCL-0001</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>The Coca-Cola Company is an American multinational beverage corporation founded in 1892, best known as the producer of Coca-Cola. The Coca-Cola Company also manufactures, sells, and markets other non-alcoholic beverage concentrates and syrups, and alcoholic beverages.</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>can</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,19 +93,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -126,10 +442,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -139,22 +694,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -203,7 +801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -236,26 +834,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -288,23 +869,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,38 +1010,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0BD81D-1067-45A0-A09F-389EA47B1E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="25.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="37.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="41.36328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.72727272727273" style="1"/>
+    <col min="5" max="5" width="25.7272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.72727272727273" style="1"/>
+    <col min="7" max="7" width="37.7272727272727" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.72727272727273" style="1"/>
+    <col min="10" max="10" width="41.3636363636364" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -492,54 +1051,54 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" ht="101.5" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>350</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>37000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2">
         <v>999</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2">
         <v>5</v>
@@ -547,9 +1106,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.coca-cola.com/" xr:uid="{989BB339-1F74-49A9-BD57-BB7E283D990E}"/>
+    <hyperlink ref="E2" r:id="rId1" display="cocacola"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11870" windowHeight="5560"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>product name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>productName</t>
   </si>
   <si>
     <t>category</t>
@@ -31,43 +31,55 @@
     <t>tags</t>
   </si>
   <si>
-    <t>unit price</t>
-  </si>
-  <si>
-    <t>discount date</t>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t>discountDate</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>discount</t>
   </si>
   <si>
-    <t>CocaCola</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>cocacola</t>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Nabati</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>nabati</t>
   </si>
   <si>
     <t>01-01-2023 00:00:00 to 31-01-2024 00:00:00</t>
   </si>
   <si>
-    <t>CCCL-0001</t>
-  </si>
-  <si>
-    <t>The Coca-Cola Company is an American multinational beverage corporation founded in 1892, best known as the producer of Coca-Cola. The Coca-Cola Company also manufactures, sells, and markets other non-alcoholic beverage concentrates and syrups, and alcoholic beverages.</t>
+    <t>Bánh Nabati Hương Phúc Bồn Tử 50g. 6.900 ₫ ; 320G Bánh Phomai (Dạng Xốp) Richeese Nabati Cheese Cream Wafer (Hộp 20 thanh x 16g).</t>
+  </si>
+  <si>
+    <t>Nabati.jpg</t>
+  </si>
+  <si>
+    <t>ChocoPie</t>
+  </si>
+  <si>
+    <t>chocopie</t>
+  </si>
+  <si>
+    <t>Chocopie cake is a line of cakes manufactured by the company, this cake line is very popular in Vietnam. Chocopie cake brand has many kinds of products such as Banana Chocopie, Peach Chocopie, Watermelon Chocopie, Black bean milk tea Chocopie, etc. Each type of cake will have the same flavor and color according to the name.</t>
+  </si>
+  <si>
+    <t>ChocoPie.jpg</t>
   </si>
 </sst>
 </file>
@@ -75,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,15 +110,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,59 +141,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,10 +154,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,13 +186,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -218,6 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -225,16 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,65 +445,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,6 +473,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -540,149 +534,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,22 +1021,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.0909090909091" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.72727272727273" style="1"/>
     <col min="5" max="5" width="25.7272727272727" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.72727272727273" style="1"/>
     <col min="7" max="7" width="37.7272727272727" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.72727272727273" style="1"/>
-    <col min="10" max="10" width="41.3636363636364" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.72727272727273" style="1"/>
+    <col min="8" max="8" width="8.72727272727273" style="1"/>
+    <col min="9" max="9" width="41.3636363636364" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1062,14 +1067,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="101.5" spans="1:11">
+    <row r="2" ht="43.5" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1080,13 +1085,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>37000</v>
+        <v>48000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -1097,16 +1102,51 @@
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2">
-        <v>5</v>
+    </row>
+    <row r="3" ht="116" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>189000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>300</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="cocacola"/>
+    <hyperlink ref="E2" r:id="rId1" display="nabati"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="AddProduct" sheetId="1" r:id="rId1"/>
@@ -49,37 +49,37 @@
     <t>image</t>
   </si>
   <si>
-    <t>Nabati</t>
+    <t>Cosy</t>
   </si>
   <si>
     <t>Pie</t>
   </si>
   <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>nabati</t>
+    <t>g</t>
+  </si>
+  <si>
+    <t>cosy</t>
   </si>
   <si>
     <t>01-01-2023 00:00:00 to 31-01-2024 00:00:00</t>
   </si>
   <si>
-    <t>Bánh Nabati Hương Phúc Bồn Tử 50g. 6.900 ₫ ; 320G Bánh Phomai (Dạng Xốp) Richeese Nabati Cheese Cream Wafer (Hộp 20 thanh x 16g).</t>
-  </si>
-  <si>
-    <t>Nabati.jpg</t>
-  </si>
-  <si>
-    <t>ChocoPie</t>
+    <t>Buy Cozy Seed Butter Cookies 336g paper box (TET TEMPLATE 2022) at good price. Buy online reputable, convenient.</t>
+  </si>
+  <si>
+    <t>Cosy.png</t>
+  </si>
+  <si>
+    <t>Tet TaiLoc</t>
   </si>
   <si>
     <t>chocopie</t>
   </si>
   <si>
-    <t>Chocopie cake is a line of cakes manufactured by the company, this cake line is very popular in Vietnam. Chocopie cake brand has many kinds of products such as Banana Chocopie, Peach Chocopie, Watermelon Chocopie, Black bean milk tea Chocopie, etc. Each type of cake will have the same flavor and color according to the name.</t>
-  </si>
-  <si>
-    <t>ChocoPie.jpg</t>
+    <t>GOLDEN GIFT BOX The motifs are hand-molded or cast according to the most modern vacuum casting technology today, the product is processed in detail and meticulously then covered with a layer of 9999 pure gold on the entire surface. The face creates a set of high-class and luxurious products.</t>
+  </si>
+  <si>
+    <t>quatet.jpg</t>
   </si>
 </sst>
 </file>
@@ -87,12 +87,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,33 +103,48 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -140,9 +155,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,9 +177,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,8 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,22 +217,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,21 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +262,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,169 +388,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,30 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +527,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,10 +544,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,128 +574,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1085,13 +1093,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>48000</v>
+        <v>138000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -1099,7 +1107,7 @@
       <c r="H2" s="2">
         <v>999</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="2">
@@ -1109,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="116" spans="1:11">
+    <row r="3" ht="101.5" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1120,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="2">
-        <v>189000</v>
+        <v>836000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -1146,7 +1154,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="nabati"/>
+    <hyperlink ref="E2" r:id="rId1" display="cosy"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/DataTest/AddProduct.xlsx
+++ b/DataTest/AddProduct.xlsx
@@ -87,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -109,6 +109,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,8 +117,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,23 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,17 +148,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,9 +170,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,60 +252,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,67 +262,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,79 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,30 +443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,17 +456,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +478,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,66 +549,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,128 +574,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
